--- a/Task-9/Sales_Data.xlsx
+++ b/Task-9/Sales_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IEEE-CS-AI-25\Task-9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{488CCE62-1255-4E61-BB80-8012FF6975B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CFA6B90-0968-4662-8551-FE4245B9D2C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{51E38521-2491-41E0-8DAA-D844C4E9D608}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -269,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -283,10 +283,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -295,7 +291,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -307,69 +303,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -710,17 +643,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1D71057-7718-4186-9C4E-59D843E549A9}">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="137" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.33203125" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
@@ -745,7 +677,7 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="5" t="s">
         <v>51</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -767,7 +699,7 @@
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="3">
         <v>5</v>
       </c>
       <c r="D2" s="3">
@@ -791,11 +723,11 @@
         <v>0.08</v>
       </c>
       <c r="J2" s="3"/>
-      <c r="K2" s="8"/>
+      <c r="K2" s="6"/>
       <c r="L2" s="3">
         <v>0</v>
       </c>
-      <c r="M2" s="8">
+      <c r="M2" s="6">
         <v>0.02</v>
       </c>
     </row>
@@ -806,7 +738,7 @@
       <c r="B3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="3">
         <v>11</v>
       </c>
       <c r="D3" s="3">
@@ -829,11 +761,11 @@
         <v>0.08</v>
       </c>
       <c r="J3" s="3"/>
-      <c r="K3" s="8"/>
+      <c r="K3" s="6"/>
       <c r="L3" s="3">
         <v>100</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="6">
         <v>0.04</v>
       </c>
     </row>
@@ -844,7 +776,7 @@
       <c r="B4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <v>7</v>
       </c>
       <c r="D4" s="3">
@@ -867,11 +799,11 @@
         <v>0.08</v>
       </c>
       <c r="J4" s="3"/>
-      <c r="K4" s="8"/>
+      <c r="K4" s="6"/>
       <c r="L4" s="3">
         <v>300</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="6">
         <v>0.06</v>
       </c>
     </row>
@@ -882,7 +814,7 @@
       <c r="B5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="3">
         <v>13</v>
       </c>
       <c r="D5" s="3">
@@ -905,11 +837,11 @@
         <v>0.08</v>
       </c>
       <c r="J5" s="3"/>
-      <c r="K5" s="8"/>
+      <c r="K5" s="6"/>
       <c r="L5" s="3">
         <v>600</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="6">
         <v>0.08</v>
       </c>
     </row>
@@ -920,7 +852,7 @@
       <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="3">
         <v>11</v>
       </c>
       <c r="D6" s="3">
@@ -943,7 +875,7 @@
         <v>0.08</v>
       </c>
       <c r="J6" s="3"/>
-      <c r="K6" s="8"/>
+      <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
@@ -952,7 +884,7 @@
       <c r="B7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="3">
         <v>8</v>
       </c>
       <c r="D7" s="3">
@@ -983,7 +915,7 @@
       <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="3">
         <v>12</v>
       </c>
       <c r="D8" s="3">
@@ -1014,7 +946,7 @@
       <c r="B9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="3">
         <v>12</v>
       </c>
       <c r="D9" s="3">
@@ -1045,7 +977,7 @@
       <c r="B10" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="3">
         <v>9</v>
       </c>
       <c r="D10" s="3">
@@ -1076,7 +1008,7 @@
       <c r="B11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="3">
         <v>9</v>
       </c>
       <c r="D11" s="3">
@@ -1107,7 +1039,7 @@
       <c r="B12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="3">
         <v>7</v>
       </c>
       <c r="D12" s="3">
@@ -1138,7 +1070,7 @@
       <c r="B13" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="3">
         <v>5</v>
       </c>
       <c r="D13" s="3">
@@ -1169,7 +1101,7 @@
       <c r="B14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="3">
         <v>14</v>
       </c>
       <c r="D14" s="3">
@@ -1200,7 +1132,7 @@
       <c r="B15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="3">
         <v>13</v>
       </c>
       <c r="D15" s="3">
@@ -1231,7 +1163,7 @@
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="3">
         <v>14</v>
       </c>
       <c r="D16" s="3">
@@ -1262,7 +1194,7 @@
       <c r="B17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="3">
         <v>6</v>
       </c>
       <c r="D17" s="3">
@@ -1293,7 +1225,7 @@
       <c r="B18" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="3">
         <v>6</v>
       </c>
       <c r="D18" s="3">
@@ -1324,7 +1256,7 @@
       <c r="B19" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="3">
         <v>10</v>
       </c>
       <c r="D19" s="3">
@@ -1355,7 +1287,7 @@
       <c r="B20" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="3">
         <v>9</v>
       </c>
       <c r="D20" s="3">
@@ -1386,7 +1318,7 @@
       <c r="B21" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="3">
         <v>11</v>
       </c>
       <c r="D21" s="3">
@@ -1409,12 +1341,6 @@
         <v>0.02</v>
       </c>
       <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I22">
-        <f t="shared" si="0"/>
-        <v>0.02</v>
-      </c>
     </row>
   </sheetData>
   <autoFilter ref="C1:C23" xr:uid="{E1D71057-7718-4186-9C4E-59D843E549A9}"/>
@@ -1423,15 +1349,15 @@
     <sortCondition ref="E2:E23"/>
   </sortState>
   <conditionalFormatting sqref="C2:C1048576">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G21 G5723:G1048576">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>500</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Task-9/Sales_Data.xlsx
+++ b/Task-9/Sales_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IEEE-CS-AI-25\Task-9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CFA6B90-0968-4662-8551-FE4245B9D2C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458C9341-CEF7-4B14-88B2-449A739BB819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{51E38521-2491-41E0-8DAA-D844C4E9D608}"/>
   </bookViews>
@@ -645,7 +645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1D71057-7718-4186-9C4E-59D843E549A9}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="137" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="137" workbookViewId="0">
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
@@ -757,7 +757,7 @@
         <v>High</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I22" si="0">VLOOKUP(G3, $L$2:$M$5, 2, TRUE)</f>
+        <f t="shared" ref="I3:I21" si="0">VLOOKUP(G3, $L$2:$M$5, 2, TRUE)</f>
         <v>0.08</v>
       </c>
       <c r="J3" s="3"/>
